--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode\DesignScienceResearch_LiteraturReview\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3215D41-B1CB-42E5-9285-A0BF120DA4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95245E28-9E8A-4B59-A3FB-4F4CD2AA0BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="510">
   <si>
     <t>Artefakte</t>
   </si>
@@ -1565,6 +1565,9 @@
   <si>
     <t>Konferenz-ID</t>
   </si>
+  <si>
+    <t>Modell</t>
+  </si>
 </sst>
 </file>
 
@@ -2652,13 +2655,31 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2669,6 +2690,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2706,49 +2754,13 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2773,15 +2785,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3111,7 +3114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH20" sqref="BH20"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,62 +3150,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:163" s="59" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="269"/>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="255"/>
-      <c r="U1" s="255"/>
-      <c r="V1" s="255"/>
-      <c r="W1" s="255"/>
-      <c r="X1" s="255"/>
-      <c r="Y1" s="255"/>
-      <c r="Z1" s="255"/>
-      <c r="AA1" s="255"/>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="255"/>
-      <c r="AD1" s="255"/>
-      <c r="AE1" s="256"/>
-      <c r="AF1" s="254" t="s">
+      <c r="A1" s="251"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="260" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="261"/>
+      <c r="P1" s="261"/>
+      <c r="Q1" s="261"/>
+      <c r="R1" s="261"/>
+      <c r="S1" s="261"/>
+      <c r="T1" s="261"/>
+      <c r="U1" s="261"/>
+      <c r="V1" s="261"/>
+      <c r="W1" s="261"/>
+      <c r="X1" s="261"/>
+      <c r="Y1" s="261"/>
+      <c r="Z1" s="261"/>
+      <c r="AA1" s="261"/>
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="261"/>
+      <c r="AD1" s="261"/>
+      <c r="AE1" s="262"/>
+      <c r="AF1" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="255"/>
-      <c r="AH1" s="255"/>
-      <c r="AI1" s="255"/>
-      <c r="AJ1" s="255"/>
-      <c r="AK1" s="255"/>
-      <c r="AL1" s="255"/>
-      <c r="AM1" s="255"/>
-      <c r="AN1" s="255"/>
-      <c r="AO1" s="255"/>
-      <c r="AP1" s="255"/>
-      <c r="AQ1" s="255"/>
-      <c r="AR1" s="255"/>
-      <c r="AS1" s="255"/>
-      <c r="AT1" s="255"/>
-      <c r="AU1" s="255"/>
-      <c r="AV1" s="255"/>
-      <c r="AW1" s="255"/>
-      <c r="AX1" s="255"/>
-      <c r="AY1" s="255"/>
-      <c r="AZ1" s="256"/>
+      <c r="AG1" s="261"/>
+      <c r="AH1" s="261"/>
+      <c r="AI1" s="261"/>
+      <c r="AJ1" s="261"/>
+      <c r="AK1" s="261"/>
+      <c r="AL1" s="261"/>
+      <c r="AM1" s="261"/>
+      <c r="AN1" s="261"/>
+      <c r="AO1" s="261"/>
+      <c r="AP1" s="261"/>
+      <c r="AQ1" s="261"/>
+      <c r="AR1" s="261"/>
+      <c r="AS1" s="261"/>
+      <c r="AT1" s="261"/>
+      <c r="AU1" s="261"/>
+      <c r="AV1" s="261"/>
+      <c r="AW1" s="261"/>
+      <c r="AX1" s="261"/>
+      <c r="AY1" s="261"/>
+      <c r="AZ1" s="262"/>
       <c r="BA1" s="180" t="s">
         <v>84</v>
       </c>
@@ -3332,72 +3335,72 @@
       <c r="D2" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="281" t="s">
+      <c r="E2" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="272" t="s">
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="274"/>
-      <c r="O2" s="275" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="276"/>
-      <c r="T2" s="276"/>
-      <c r="U2" s="276"/>
-      <c r="V2" s="276"/>
-      <c r="W2" s="276"/>
-      <c r="X2" s="276"/>
-      <c r="Y2" s="276"/>
-      <c r="Z2" s="277"/>
-      <c r="AA2" s="278" t="s">
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="256"/>
+      <c r="O2" s="257" t="s">
+        <v>509</v>
+      </c>
+      <c r="P2" s="258"/>
+      <c r="Q2" s="258"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="258"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="258"/>
+      <c r="Y2" s="258"/>
+      <c r="Z2" s="259"/>
+      <c r="AA2" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="279"/>
-      <c r="AD2" s="279"/>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="257" t="s">
+      <c r="AB2" s="264"/>
+      <c r="AC2" s="264"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="265"/>
+      <c r="AF2" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="258"/>
-      <c r="AH2" s="258"/>
-      <c r="AI2" s="258"/>
-      <c r="AJ2" s="258"/>
-      <c r="AK2" s="259"/>
-      <c r="AL2" s="260" t="s">
+      <c r="AG2" s="273"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="273"/>
+      <c r="AJ2" s="273"/>
+      <c r="AK2" s="274"/>
+      <c r="AL2" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="261"/>
-      <c r="AN2" s="261"/>
-      <c r="AO2" s="261"/>
-      <c r="AP2" s="262"/>
-      <c r="AQ2" s="263" t="s">
+      <c r="AM2" s="276"/>
+      <c r="AN2" s="276"/>
+      <c r="AO2" s="276"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="264"/>
-      <c r="AS2" s="264"/>
-      <c r="AT2" s="265"/>
-      <c r="AU2" s="266" t="s">
+      <c r="AR2" s="279"/>
+      <c r="AS2" s="279"/>
+      <c r="AT2" s="280"/>
+      <c r="AU2" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="267"/>
-      <c r="AW2" s="268"/>
-      <c r="AX2" s="251" t="s">
+      <c r="AV2" s="282"/>
+      <c r="AW2" s="283"/>
+      <c r="AX2" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="AY2" s="252"/>
-      <c r="AZ2" s="253"/>
+      <c r="AY2" s="270"/>
+      <c r="AZ2" s="271"/>
       <c r="BA2" s="186" t="s">
         <v>84</v>
       </c>
@@ -43409,18 +43412,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AF1:AZ1"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:Z2"/>
     <mergeCell ref="E1:AE1"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="AF1:AZ1"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -43488,60 +43491,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:160" s="59" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="269"/>
-      <c r="B1" s="271"/>
-      <c r="C1" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="285"/>
-      <c r="S1" s="285"/>
-      <c r="T1" s="285"/>
-      <c r="U1" s="285"/>
-      <c r="V1" s="285"/>
-      <c r="W1" s="285"/>
-      <c r="X1" s="285"/>
-      <c r="Y1" s="285"/>
-      <c r="Z1" s="285"/>
-      <c r="AA1" s="285"/>
-      <c r="AB1" s="285"/>
-      <c r="AC1" s="285"/>
-      <c r="AD1" s="285" t="s">
+      <c r="A1" s="251"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="288"/>
+      <c r="W1" s="288"/>
+      <c r="X1" s="288"/>
+      <c r="Y1" s="288"/>
+      <c r="Z1" s="288"/>
+      <c r="AA1" s="288"/>
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="288"/>
+      <c r="AD1" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="285"/>
-      <c r="AF1" s="285"/>
-      <c r="AG1" s="285"/>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="285"/>
-      <c r="AJ1" s="285"/>
-      <c r="AK1" s="285"/>
-      <c r="AL1" s="285"/>
-      <c r="AM1" s="285"/>
-      <c r="AN1" s="285"/>
-      <c r="AO1" s="285"/>
-      <c r="AP1" s="285"/>
-      <c r="AQ1" s="285"/>
-      <c r="AR1" s="285"/>
-      <c r="AS1" s="285"/>
-      <c r="AT1" s="285"/>
-      <c r="AU1" s="285"/>
-      <c r="AV1" s="285"/>
-      <c r="AW1" s="285"/>
-      <c r="AX1" s="285"/>
+      <c r="AE1" s="288"/>
+      <c r="AF1" s="288"/>
+      <c r="AG1" s="288"/>
+      <c r="AH1" s="288"/>
+      <c r="AI1" s="288"/>
+      <c r="AJ1" s="288"/>
+      <c r="AK1" s="288"/>
+      <c r="AL1" s="288"/>
+      <c r="AM1" s="288"/>
+      <c r="AN1" s="288"/>
+      <c r="AO1" s="288"/>
+      <c r="AP1" s="288"/>
+      <c r="AQ1" s="288"/>
+      <c r="AR1" s="288"/>
+      <c r="AS1" s="288"/>
+      <c r="AT1" s="288"/>
+      <c r="AU1" s="288"/>
+      <c r="AV1" s="288"/>
+      <c r="AW1" s="288"/>
+      <c r="AX1" s="288"/>
       <c r="AY1" s="11" t="s">
         <v>77</v>
       </c>
@@ -43662,72 +43665,72 @@
       <c r="B2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="293" t="s">
+      <c r="C2" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="294" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="286" t="s">
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="287" t="s">
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="289"/>
+      <c r="W2" s="289"/>
+      <c r="X2" s="289"/>
+      <c r="Y2" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="287"/>
-      <c r="AA2" s="287"/>
-      <c r="AB2" s="287"/>
-      <c r="AC2" s="287"/>
-      <c r="AD2" s="288" t="s">
+      <c r="Z2" s="290"/>
+      <c r="AA2" s="290"/>
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="290"/>
+      <c r="AD2" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="288"/>
-      <c r="AG2" s="288"/>
-      <c r="AH2" s="288"/>
-      <c r="AI2" s="288"/>
-      <c r="AJ2" s="289" t="s">
+      <c r="AE2" s="291"/>
+      <c r="AF2" s="291"/>
+      <c r="AG2" s="291"/>
+      <c r="AH2" s="291"/>
+      <c r="AI2" s="291"/>
+      <c r="AJ2" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="289"/>
-      <c r="AL2" s="289"/>
-      <c r="AM2" s="289"/>
-      <c r="AN2" s="289"/>
-      <c r="AO2" s="290" t="s">
+      <c r="AK2" s="292"/>
+      <c r="AL2" s="292"/>
+      <c r="AM2" s="292"/>
+      <c r="AN2" s="292"/>
+      <c r="AO2" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="290"/>
-      <c r="AQ2" s="290"/>
-      <c r="AR2" s="290"/>
-      <c r="AS2" s="291" t="s">
+      <c r="AP2" s="293"/>
+      <c r="AQ2" s="293"/>
+      <c r="AR2" s="293"/>
+      <c r="AS2" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="291"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="284" t="s">
+      <c r="AT2" s="294"/>
+      <c r="AU2" s="294"/>
+      <c r="AV2" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="AW2" s="284"/>
-      <c r="AX2" s="284"/>
+      <c r="AW2" s="287"/>
+      <c r="AX2" s="287"/>
       <c r="AY2" s="60" t="s">
         <v>77</v>
       </c>
@@ -44044,7 +44047,7 @@
       <c r="AY4" s="62"/>
     </row>
     <row r="5" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="292" t="s">
+      <c r="A5" s="284" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -44250,7 +44253,7 @@
       <c r="FD5" s="29"/>
     </row>
     <row r="6" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="292"/>
+      <c r="A6" s="284"/>
       <c r="B6" s="24" t="s">
         <v>56</v>
       </c>
@@ -44434,7 +44437,7 @@
       <c r="FD6" s="29"/>
     </row>
     <row r="7" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="292"/>
+      <c r="A7" s="284"/>
       <c r="B7" s="24" t="s">
         <v>65</v>
       </c>
@@ -44624,7 +44627,7 @@
       <c r="FD7" s="29"/>
     </row>
     <row r="8" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
+      <c r="A8" s="284"/>
       <c r="B8" s="24" t="s">
         <v>63</v>
       </c>
@@ -44810,7 +44813,7 @@
       <c r="FD8" s="29"/>
     </row>
     <row r="9" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="292"/>
+      <c r="A9" s="284"/>
       <c r="B9" s="24" t="s">
         <v>62</v>
       </c>
@@ -44984,7 +44987,7 @@
       <c r="FD9" s="29"/>
     </row>
     <row r="10" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="292"/>
+      <c r="A10" s="284"/>
       <c r="B10" s="24" t="s">
         <v>69</v>
       </c>
@@ -45156,7 +45159,7 @@
       <c r="FD10" s="29"/>
     </row>
     <row r="11" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="292"/>
+      <c r="A11" s="284"/>
       <c r="B11" s="24" t="s">
         <v>58</v>
       </c>
@@ -45336,7 +45339,7 @@
       <c r="FD11" s="29"/>
     </row>
     <row r="12" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="292"/>
+      <c r="A12" s="284"/>
       <c r="B12" s="24" t="s">
         <v>57</v>
       </c>
@@ -45569,7 +45572,7 @@
       <c r="AY13" s="62"/>
     </row>
     <row r="14" spans="1:160" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="292" t="s">
+      <c r="A14" s="284" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -45649,7 +45652,7 @@
       <c r="AX14" s="49"/>
     </row>
     <row r="15" spans="1:160" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="292"/>
+      <c r="A15" s="284"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -45705,7 +45708,7 @@
       <c r="AX15" s="49"/>
     </row>
     <row r="16" spans="1:160" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="292"/>
+      <c r="A16" s="284"/>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
@@ -45761,7 +45764,7 @@
       <c r="AX16" s="49"/>
     </row>
     <row r="17" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="292"/>
+      <c r="A17" s="284"/>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -45817,7 +45820,7 @@
       <c r="AX17" s="49"/>
     </row>
     <row r="18" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="292"/>
+      <c r="A18" s="284"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -45873,7 +45876,7 @@
       <c r="AX18" s="49"/>
     </row>
     <row r="19" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="292"/>
+      <c r="A19" s="284"/>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -45929,7 +45932,7 @@
       <c r="AX19" s="49"/>
     </row>
     <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="292"/>
+      <c r="A20" s="284"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -45985,7 +45988,7 @@
       <c r="AX20" s="49"/>
     </row>
     <row r="21" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="292"/>
+      <c r="A21" s="284"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
@@ -46041,7 +46044,7 @@
       </c>
     </row>
     <row r="22" spans="1:51" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="292"/>
+      <c r="A22" s="284"/>
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
@@ -51624,11 +51627,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
     <mergeCell ref="AV2:AX2"/>
     <mergeCell ref="C1:AC1"/>
     <mergeCell ref="AD1:AX1"/>
@@ -51638,6 +51636,11 @@
     <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions headings="1"/>
@@ -51695,58 +51698,58 @@
     <row r="1" spans="1:160" s="122" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="296"/>
       <c r="B1" s="297"/>
-      <c r="C1" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="285"/>
-      <c r="S1" s="285"/>
-      <c r="T1" s="285"/>
-      <c r="U1" s="285"/>
-      <c r="V1" s="285"/>
-      <c r="W1" s="285"/>
-      <c r="X1" s="285"/>
-      <c r="Y1" s="285"/>
-      <c r="Z1" s="285"/>
-      <c r="AA1" s="285"/>
-      <c r="AB1" s="285"/>
-      <c r="AC1" s="285"/>
-      <c r="AD1" s="285" t="s">
+      <c r="C1" s="288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="288"/>
+      <c r="W1" s="288"/>
+      <c r="X1" s="288"/>
+      <c r="Y1" s="288"/>
+      <c r="Z1" s="288"/>
+      <c r="AA1" s="288"/>
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="288"/>
+      <c r="AD1" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="285"/>
-      <c r="AF1" s="285"/>
-      <c r="AG1" s="285"/>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="285"/>
-      <c r="AJ1" s="285"/>
-      <c r="AK1" s="285"/>
-      <c r="AL1" s="285"/>
-      <c r="AM1" s="285"/>
-      <c r="AN1" s="285"/>
-      <c r="AO1" s="285"/>
-      <c r="AP1" s="285"/>
-      <c r="AQ1" s="285"/>
-      <c r="AR1" s="285"/>
-      <c r="AS1" s="285"/>
-      <c r="AT1" s="285"/>
-      <c r="AU1" s="285"/>
-      <c r="AV1" s="285"/>
-      <c r="AW1" s="285"/>
-      <c r="AX1" s="285"/>
+      <c r="AE1" s="288"/>
+      <c r="AF1" s="288"/>
+      <c r="AG1" s="288"/>
+      <c r="AH1" s="288"/>
+      <c r="AI1" s="288"/>
+      <c r="AJ1" s="288"/>
+      <c r="AK1" s="288"/>
+      <c r="AL1" s="288"/>
+      <c r="AM1" s="288"/>
+      <c r="AN1" s="288"/>
+      <c r="AO1" s="288"/>
+      <c r="AP1" s="288"/>
+      <c r="AQ1" s="288"/>
+      <c r="AR1" s="288"/>
+      <c r="AS1" s="288"/>
+      <c r="AT1" s="288"/>
+      <c r="AU1" s="288"/>
+      <c r="AV1" s="288"/>
+      <c r="AW1" s="288"/>
+      <c r="AX1" s="288"/>
       <c r="AY1" s="118" t="s">
         <v>77</v>
       </c>
@@ -51867,72 +51870,72 @@
       <c r="B2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="293" t="s">
+      <c r="C2" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="294" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="286" t="s">
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="287" t="s">
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="289"/>
+      <c r="W2" s="289"/>
+      <c r="X2" s="289"/>
+      <c r="Y2" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="287"/>
-      <c r="AA2" s="287"/>
-      <c r="AB2" s="287"/>
-      <c r="AC2" s="287"/>
-      <c r="AD2" s="288" t="s">
+      <c r="Z2" s="290"/>
+      <c r="AA2" s="290"/>
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="290"/>
+      <c r="AD2" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="288"/>
-      <c r="AG2" s="288"/>
-      <c r="AH2" s="288"/>
-      <c r="AI2" s="288"/>
-      <c r="AJ2" s="289" t="s">
+      <c r="AE2" s="291"/>
+      <c r="AF2" s="291"/>
+      <c r="AG2" s="291"/>
+      <c r="AH2" s="291"/>
+      <c r="AI2" s="291"/>
+      <c r="AJ2" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="289"/>
-      <c r="AL2" s="289"/>
-      <c r="AM2" s="289"/>
-      <c r="AN2" s="289"/>
-      <c r="AO2" s="290" t="s">
+      <c r="AK2" s="292"/>
+      <c r="AL2" s="292"/>
+      <c r="AM2" s="292"/>
+      <c r="AN2" s="292"/>
+      <c r="AO2" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="290"/>
-      <c r="AQ2" s="290"/>
-      <c r="AR2" s="290"/>
-      <c r="AS2" s="291" t="s">
+      <c r="AP2" s="293"/>
+      <c r="AQ2" s="293"/>
+      <c r="AR2" s="293"/>
+      <c r="AS2" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="291"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="284" t="s">
+      <c r="AT2" s="294"/>
+      <c r="AU2" s="294"/>
+      <c r="AV2" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="AW2" s="284"/>
-      <c r="AX2" s="284"/>
+      <c r="AW2" s="287"/>
+      <c r="AX2" s="287"/>
       <c r="AY2" s="60" t="s">
         <v>77</v>
       </c>
@@ -61952,11 +61955,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
     <mergeCell ref="AV2:AX2"/>
     <mergeCell ref="C1:AC1"/>
     <mergeCell ref="AD1:AX1"/>
@@ -61966,6 +61964,11 @@
     <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -62013,60 +62016,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:160" s="59" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="269"/>
-      <c r="B1" s="271"/>
-      <c r="C1" s="285" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="285"/>
-      <c r="S1" s="285"/>
-      <c r="T1" s="285"/>
-      <c r="U1" s="285"/>
-      <c r="V1" s="285"/>
-      <c r="W1" s="285"/>
-      <c r="X1" s="285"/>
-      <c r="Y1" s="285"/>
-      <c r="Z1" s="285"/>
-      <c r="AA1" s="285"/>
-      <c r="AB1" s="285"/>
-      <c r="AC1" s="285"/>
-      <c r="AD1" s="285" t="s">
+      <c r="A1" s="251"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="288"/>
+      <c r="W1" s="288"/>
+      <c r="X1" s="288"/>
+      <c r="Y1" s="288"/>
+      <c r="Z1" s="288"/>
+      <c r="AA1" s="288"/>
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="288"/>
+      <c r="AD1" s="288" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="285"/>
-      <c r="AF1" s="285"/>
-      <c r="AG1" s="285"/>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="285"/>
-      <c r="AJ1" s="285"/>
-      <c r="AK1" s="285"/>
-      <c r="AL1" s="285"/>
-      <c r="AM1" s="285"/>
-      <c r="AN1" s="285"/>
-      <c r="AO1" s="285"/>
-      <c r="AP1" s="285"/>
-      <c r="AQ1" s="285"/>
-      <c r="AR1" s="285"/>
-      <c r="AS1" s="285"/>
-      <c r="AT1" s="285"/>
-      <c r="AU1" s="285"/>
-      <c r="AV1" s="285"/>
-      <c r="AW1" s="285"/>
-      <c r="AX1" s="285"/>
+      <c r="AE1" s="288"/>
+      <c r="AF1" s="288"/>
+      <c r="AG1" s="288"/>
+      <c r="AH1" s="288"/>
+      <c r="AI1" s="288"/>
+      <c r="AJ1" s="288"/>
+      <c r="AK1" s="288"/>
+      <c r="AL1" s="288"/>
+      <c r="AM1" s="288"/>
+      <c r="AN1" s="288"/>
+      <c r="AO1" s="288"/>
+      <c r="AP1" s="288"/>
+      <c r="AQ1" s="288"/>
+      <c r="AR1" s="288"/>
+      <c r="AS1" s="288"/>
+      <c r="AT1" s="288"/>
+      <c r="AU1" s="288"/>
+      <c r="AV1" s="288"/>
+      <c r="AW1" s="288"/>
+      <c r="AX1" s="288"/>
       <c r="AY1" s="11" t="s">
         <v>77</v>
       </c>
@@ -62187,72 +62190,72 @@
       <c r="B2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="293" t="s">
+      <c r="C2" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="294" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="286" t="s">
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="287" t="s">
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="289"/>
+      <c r="W2" s="289"/>
+      <c r="X2" s="289"/>
+      <c r="Y2" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="287"/>
-      <c r="AA2" s="287"/>
-      <c r="AB2" s="287"/>
-      <c r="AC2" s="287"/>
-      <c r="AD2" s="288" t="s">
+      <c r="Z2" s="290"/>
+      <c r="AA2" s="290"/>
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="290"/>
+      <c r="AD2" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="288"/>
-      <c r="AG2" s="288"/>
-      <c r="AH2" s="288"/>
-      <c r="AI2" s="288"/>
-      <c r="AJ2" s="289" t="s">
+      <c r="AE2" s="291"/>
+      <c r="AF2" s="291"/>
+      <c r="AG2" s="291"/>
+      <c r="AH2" s="291"/>
+      <c r="AI2" s="291"/>
+      <c r="AJ2" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="289"/>
-      <c r="AL2" s="289"/>
-      <c r="AM2" s="289"/>
-      <c r="AN2" s="289"/>
-      <c r="AO2" s="290" t="s">
+      <c r="AK2" s="292"/>
+      <c r="AL2" s="292"/>
+      <c r="AM2" s="292"/>
+      <c r="AN2" s="292"/>
+      <c r="AO2" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="290"/>
-      <c r="AQ2" s="290"/>
-      <c r="AR2" s="290"/>
-      <c r="AS2" s="291" t="s">
+      <c r="AP2" s="293"/>
+      <c r="AQ2" s="293"/>
+      <c r="AR2" s="293"/>
+      <c r="AS2" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="291"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="284" t="s">
+      <c r="AT2" s="294"/>
+      <c r="AU2" s="294"/>
+      <c r="AV2" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="AW2" s="284"/>
-      <c r="AX2" s="284"/>
+      <c r="AW2" s="287"/>
+      <c r="AX2" s="287"/>
       <c r="AY2" s="60" t="s">
         <v>77</v>
       </c>
@@ -62569,7 +62572,7 @@
       <c r="AY4" s="62"/>
     </row>
     <row r="5" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="292" t="s">
+      <c r="A5" s="284" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -62775,7 +62778,7 @@
       <c r="FD5" s="29"/>
     </row>
     <row r="6" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="292"/>
+      <c r="A6" s="284"/>
       <c r="B6" s="24" t="s">
         <v>56</v>
       </c>
@@ -62959,7 +62962,7 @@
       <c r="FD6" s="29"/>
     </row>
     <row r="7" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="292"/>
+      <c r="A7" s="284"/>
       <c r="B7" s="24" t="s">
         <v>65</v>
       </c>
@@ -63149,7 +63152,7 @@
       <c r="FD7" s="29"/>
     </row>
     <row r="8" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
+      <c r="A8" s="284"/>
       <c r="B8" s="24" t="s">
         <v>63</v>
       </c>
@@ -63335,7 +63338,7 @@
       <c r="FD8" s="29"/>
     </row>
     <row r="9" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="292"/>
+      <c r="A9" s="284"/>
       <c r="B9" s="24" t="s">
         <v>62</v>
       </c>
@@ -63509,7 +63512,7 @@
       <c r="FD9" s="29"/>
     </row>
     <row r="10" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="292"/>
+      <c r="A10" s="284"/>
       <c r="B10" s="24" t="s">
         <v>69</v>
       </c>
@@ -63681,7 +63684,7 @@
       <c r="FD10" s="29"/>
     </row>
     <row r="11" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="292"/>
+      <c r="A11" s="284"/>
       <c r="B11" s="24" t="s">
         <v>58</v>
       </c>
@@ -63861,7 +63864,7 @@
       <c r="FD11" s="29"/>
     </row>
     <row r="12" spans="1:160" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="292"/>
+      <c r="A12" s="284"/>
       <c r="B12" s="24" t="s">
         <v>57</v>
       </c>
@@ -64094,7 +64097,7 @@
       <c r="AY13" s="62"/>
     </row>
     <row r="14" spans="1:160" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="292" t="s">
+      <c r="A14" s="284" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -64174,7 +64177,7 @@
       <c r="AX14" s="49"/>
     </row>
     <row r="15" spans="1:160" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="292"/>
+      <c r="A15" s="284"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -64230,7 +64233,7 @@
       <c r="AX15" s="49"/>
     </row>
     <row r="16" spans="1:160" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="292"/>
+      <c r="A16" s="284"/>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
@@ -64286,7 +64289,7 @@
       <c r="AX16" s="49"/>
     </row>
     <row r="17" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="292"/>
+      <c r="A17" s="284"/>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -64342,7 +64345,7 @@
       <c r="AX17" s="49"/>
     </row>
     <row r="18" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="292"/>
+      <c r="A18" s="284"/>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -64398,7 +64401,7 @@
       <c r="AX18" s="49"/>
     </row>
     <row r="19" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="292"/>
+      <c r="A19" s="284"/>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -64454,7 +64457,7 @@
       <c r="AX19" s="49"/>
     </row>
     <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="292"/>
+      <c r="A20" s="284"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -64510,7 +64513,7 @@
       <c r="AX20" s="49"/>
     </row>
     <row r="21" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="292"/>
+      <c r="A21" s="284"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
@@ -64566,7 +64569,7 @@
       </c>
     </row>
     <row r="22" spans="1:51" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="292"/>
+      <c r="A22" s="284"/>
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
@@ -70689,11 +70692,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
     <mergeCell ref="AV2:AX2"/>
     <mergeCell ref="C1:AC1"/>
     <mergeCell ref="AD1:AX1"/>
@@ -70703,6 +70701,11 @@
     <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -70711,6 +70714,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E2C36908031EAA4DBA4B215FF24AC16B" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="25d4e3628e74548e003023a6e3d05b60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="626cd67d-102d-46d0-ac37-3e6bebf97187" xmlns:ns4="462a4cbc-85ef-4c28-ad24-c497397070e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d17c4b31f0b9c9b8b8eca0bdaf2f3e1" ns3:_="" ns4:_="">
     <xsd:import namespace="626cd67d-102d-46d0-ac37-3e6bebf97187"/>
@@ -70881,36 +70899,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2531E1F-36F0-4D6F-8959-A821D9D1B4F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F08EF8D-CDD2-499D-902D-DE25C019B585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="626cd67d-102d-46d0-ac37-3e6bebf97187"/>
-    <ds:schemaRef ds:uri="462a4cbc-85ef-4c28-ad24-c497397070e6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -70933,9 +70925,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F08EF8D-CDD2-499D-902D-DE25C019B585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2531E1F-36F0-4D6F-8959-A821D9D1B4F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="626cd67d-102d-46d0-ac37-3e6bebf97187"/>
+    <ds:schemaRef ds:uri="462a4cbc-85ef-4c28-ad24-c497397070e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/literature.xlsx
+++ b/data/literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSCode\DesignScienceResearch_LiteraturReview\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3110AF25-39FF-41F3-82BD-83D1012FA8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44427C-5CE0-40D6-A131-CA91197990F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Statische (Code) Analyse</t>
-  </si>
-  <si>
-    <t>Koknitive Evaluation</t>
   </si>
   <si>
     <t>Algorithmus</t>
@@ -992,6 +989,9 @@
   <si>
     <t>Semantisches Datenmodell</t>
   </si>
+  <si>
+    <t>Kognitive Evaluation</t>
+  </si>
 </sst>
 </file>
 
@@ -1544,13 +1544,31 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1561,6 +1579,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1596,51 +1641,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1959,9 +1959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FG242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,67 +1997,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:163" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="90"/>
       <c r="BA1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BB1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
@@ -2171,88 +2171,88 @@
     </row>
     <row r="2" spans="1:163" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="100" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="106" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="85" t="s">
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="88" t="s">
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="91" t="s">
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="94" t="s">
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="79" t="s">
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="111"/>
+      <c r="AX2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="81"/>
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="99"/>
       <c r="BA2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BC2"/>
       <c r="BD2"/>
@@ -2370,85 +2370,85 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="Z3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AE3" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="AE3" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="AF3" s="25" t="s">
         <v>27</v>
@@ -2457,13 +2457,13 @@
         <v>28</v>
       </c>
       <c r="AH3" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="AJ3" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK3" s="26" t="s">
         <v>21</v>
@@ -2511,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="AZ3" s="34" t="s">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="BA3" s="35"/>
       <c r="BB3" s="36"/>
@@ -2627,16 +2627,16 @@
     </row>
     <row r="4" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="38">
         <v>2019</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="40">
         <v>0</v>
@@ -2791,16 +2791,16 @@
     </row>
     <row r="5" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="48">
         <v>2019</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="50">
         <v>0</v>
@@ -2955,16 +2955,16 @@
     </row>
     <row r="6" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="38">
         <v>2019</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="40">
         <v>0</v>
@@ -3119,16 +3119,16 @@
     </row>
     <row r="7" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="48">
         <v>2019</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="50">
         <v>0</v>
@@ -3283,16 +3283,16 @@
     </row>
     <row r="8" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="38">
         <v>2019</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="40">
         <v>0</v>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="9" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="48">
         <v>2019</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="50">
         <v>0</v>
@@ -3611,16 +3611,16 @@
     </row>
     <row r="10" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="38">
         <v>2019</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="40">
         <v>0</v>
@@ -3775,16 +3775,16 @@
     </row>
     <row r="11" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="48">
         <v>2019</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="50">
         <v>0</v>
@@ -3939,16 +3939,16 @@
     </row>
     <row r="12" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C12" s="38">
         <v>2019</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="40">
         <v>0</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="13" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C13" s="48">
         <v>2019</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="50">
         <v>0</v>
@@ -4267,16 +4267,16 @@
     </row>
     <row r="14" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" s="38">
         <v>2019</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="43">
         <v>0</v>
@@ -4431,16 +4431,16 @@
     </row>
     <row r="15" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15" s="48">
         <v>2019</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="53">
         <v>0</v>
@@ -4595,16 +4595,16 @@
     </row>
     <row r="16" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="38">
         <v>2019</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="43">
         <v>0</v>
@@ -4759,16 +4759,16 @@
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="48">
         <v>2019</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="53">
         <v>0</v>
@@ -4923,16 +4923,16 @@
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="38">
         <v>2019</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="43">
         <v>0</v>
@@ -5087,16 +5087,16 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" s="48">
         <v>2019</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="53">
         <v>0</v>
@@ -5251,16 +5251,16 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="38">
         <v>2019</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="43">
         <v>0</v>
@@ -5415,16 +5415,16 @@
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="48">
         <v>2019</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="53">
         <v>0</v>
@@ -5579,16 +5579,16 @@
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="38">
         <v>2019</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" s="43">
         <v>0</v>
@@ -5743,16 +5743,16 @@
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="48">
         <v>2019</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="53">
         <v>0</v>
@@ -5907,16 +5907,16 @@
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="38">
         <v>2019</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="43">
         <v>0</v>
@@ -6071,16 +6071,16 @@
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" s="48">
         <v>2019</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="53">
         <v>0</v>
@@ -6235,16 +6235,16 @@
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C26" s="38">
         <v>2019</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="43">
         <v>0</v>
@@ -6399,16 +6399,16 @@
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="48">
         <v>2019</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="53">
         <v>0</v>
@@ -6563,16 +6563,16 @@
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="38">
         <v>2019</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="43">
         <v>0</v>
@@ -6727,16 +6727,16 @@
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C29" s="48">
         <v>2019</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="53">
         <v>0</v>
@@ -6891,16 +6891,16 @@
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="38">
         <v>2019</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="43">
         <v>0</v>
@@ -7055,16 +7055,16 @@
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="48">
         <v>2019</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="53">
         <v>0</v>
@@ -7219,16 +7219,16 @@
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" s="38">
         <v>2019</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="43">
         <v>0</v>
@@ -7383,16 +7383,16 @@
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="48">
         <v>2019</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="53">
         <v>0</v>
@@ -7547,16 +7547,16 @@
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="38">
         <v>2019</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="43">
         <v>0</v>
@@ -7711,16 +7711,16 @@
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C35" s="48">
         <v>2019</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="53">
         <v>0</v>
@@ -7875,16 +7875,16 @@
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C36" s="38">
         <v>2019</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="43">
         <v>0</v>
@@ -8039,16 +8039,16 @@
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="48">
         <v>2019</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="53">
         <v>0</v>
@@ -8203,16 +8203,16 @@
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38" s="38">
         <v>2018</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="43">
         <v>0</v>
@@ -8367,16 +8367,16 @@
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39" s="48">
         <v>2018</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="53">
         <v>0</v>
@@ -8531,16 +8531,16 @@
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40" s="38">
         <v>2018</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="43">
         <v>0</v>
@@ -8695,16 +8695,16 @@
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41" s="48">
         <v>2018</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41" s="52">
         <v>0</v>
@@ -8859,16 +8859,16 @@
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C42" s="38">
         <v>2018</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42" s="43">
         <v>0</v>
@@ -9023,16 +9023,16 @@
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" s="48">
         <v>2018</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" s="53">
         <v>0</v>
@@ -9187,16 +9187,16 @@
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="38">
         <v>2018</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E44" s="43">
         <v>0</v>
@@ -9351,16 +9351,16 @@
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="48">
         <v>2018</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="53">
         <v>0</v>
@@ -9515,16 +9515,16 @@
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" s="38">
         <v>2018</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" s="43">
         <v>0</v>
@@ -9679,16 +9679,16 @@
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47" s="48">
         <v>2018</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47" s="53">
         <v>0</v>
@@ -9843,16 +9843,16 @@
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="38">
         <v>2018</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E48" s="43">
         <v>0</v>
@@ -10007,16 +10007,16 @@
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C49" s="48">
         <v>2018</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="53">
         <v>0</v>
@@ -10171,16 +10171,16 @@
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50" s="38">
         <v>2018</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="43">
         <v>0</v>
@@ -10335,16 +10335,16 @@
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="48">
         <v>2018</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E51" s="53">
         <v>0</v>
@@ -10499,16 +10499,16 @@
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52" s="38">
         <v>2018</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" s="43">
         <v>0</v>
@@ -10663,16 +10663,16 @@
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C53" s="48">
         <v>2018</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E53" s="53">
         <v>0</v>
@@ -10827,16 +10827,16 @@
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54" s="38">
         <v>2018</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E54" s="43">
         <v>0</v>
@@ -10991,16 +10991,16 @@
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" s="48">
         <v>2018</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E55" s="53">
         <v>0</v>
@@ -11155,16 +11155,16 @@
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56" s="38">
         <v>2018</v>
       </c>
       <c r="D56" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" s="43">
         <v>0</v>
@@ -11319,16 +11319,16 @@
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C57" s="48">
         <v>2018</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" s="53">
         <v>0</v>
@@ -11483,16 +11483,16 @@
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" s="38">
         <v>2018</v>
       </c>
       <c r="D58" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E58" s="43">
         <v>0</v>
@@ -11647,16 +11647,16 @@
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C59" s="48">
         <v>2018</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E59" s="53">
         <v>0</v>
@@ -11811,16 +11811,16 @@
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C60" s="38">
         <v>2018</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E60" s="43">
         <v>0</v>
@@ -11975,16 +11975,16 @@
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="48">
         <v>2018</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E61" s="53">
         <v>0</v>
@@ -12139,16 +12139,16 @@
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C62" s="38">
         <v>2018</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="43">
         <v>0</v>
@@ -12303,16 +12303,16 @@
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63" s="48">
         <v>2018</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E63" s="53">
         <v>0</v>
@@ -12467,16 +12467,16 @@
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="38">
         <v>2018</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E64" s="43">
         <v>0</v>
@@ -12631,16 +12631,16 @@
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C65" s="48">
         <v>2018</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E65" s="53">
         <v>0</v>
@@ -12795,16 +12795,16 @@
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C66" s="38">
         <v>2018</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E66" s="43">
         <v>0</v>
@@ -12959,16 +12959,16 @@
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C67" s="48">
         <v>2018</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" s="53">
         <v>0</v>
@@ -13123,16 +13123,16 @@
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C68" s="38">
         <v>2018</v>
       </c>
       <c r="D68" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68" s="43">
         <v>0</v>
@@ -13287,16 +13287,16 @@
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" s="48">
         <v>2017</v>
       </c>
       <c r="D69" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="53">
         <v>0</v>
@@ -13451,16 +13451,16 @@
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70" s="38">
         <v>2017</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E70" s="43">
         <v>0</v>
@@ -13615,16 +13615,16 @@
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C71" s="48">
         <v>2017</v>
       </c>
       <c r="D71" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71" s="53">
         <v>0</v>
@@ -13779,16 +13779,16 @@
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C72" s="38">
         <v>2017</v>
       </c>
       <c r="D72" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E72" s="43">
         <v>0</v>
@@ -13943,16 +13943,16 @@
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C73" s="48">
         <v>2017</v>
       </c>
       <c r="D73" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="53">
         <v>0</v>
@@ -14107,16 +14107,16 @@
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C74" s="38">
         <v>2017</v>
       </c>
       <c r="D74" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E74" s="43">
         <v>0</v>
@@ -14271,16 +14271,16 @@
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C75" s="48">
         <v>2017</v>
       </c>
       <c r="D75" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" s="53">
         <v>0</v>
@@ -14435,16 +14435,16 @@
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" s="38">
         <v>2017</v>
       </c>
       <c r="D76" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E76" s="43">
         <v>0</v>
@@ -14599,16 +14599,16 @@
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C77" s="48">
         <v>2017</v>
       </c>
       <c r="D77" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E77" s="53">
         <v>0</v>
@@ -14763,16 +14763,16 @@
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C78" s="38">
         <v>2017</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E78" s="43">
         <v>0</v>
@@ -14927,16 +14927,16 @@
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" s="48">
         <v>2017</v>
       </c>
       <c r="D79" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E79" s="53">
         <v>0</v>
@@ -15091,16 +15091,16 @@
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C80" s="38">
         <v>2017</v>
       </c>
       <c r="D80" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E80" s="43">
         <v>0</v>
@@ -15255,16 +15255,16 @@
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C81" s="48">
         <v>2017</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="53">
         <v>0</v>
@@ -15419,16 +15419,16 @@
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C82" s="38">
         <v>2017</v>
       </c>
       <c r="D82" s="64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E82" s="43">
         <v>0</v>
@@ -15583,16 +15583,16 @@
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C83" s="48">
         <v>2017</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E83" s="53">
         <v>0</v>
@@ -15747,16 +15747,16 @@
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C84" s="38">
         <v>2017</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E84" s="43">
         <v>0</v>
@@ -15911,16 +15911,16 @@
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C85" s="48">
         <v>2017</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E85" s="53">
         <v>0</v>
@@ -16075,16 +16075,16 @@
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C86" s="38">
         <v>2017</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E86" s="43">
         <v>0</v>
@@ -16239,16 +16239,16 @@
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C87" s="48">
         <v>2017</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E87" s="53">
         <v>0</v>
@@ -16403,16 +16403,16 @@
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C88" s="38">
         <v>2017</v>
       </c>
       <c r="D88" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E88" s="43">
         <v>0</v>
@@ -16567,16 +16567,16 @@
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C89" s="48">
         <v>2017</v>
       </c>
       <c r="D89" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E89" s="53">
         <v>0</v>
@@ -16731,16 +16731,16 @@
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C90" s="38">
         <v>2017</v>
       </c>
       <c r="D90" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E90" s="43">
         <v>0</v>
@@ -16895,16 +16895,16 @@
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C91" s="48">
         <v>2017</v>
       </c>
       <c r="D91" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E91" s="53">
         <v>0</v>
@@ -17059,16 +17059,16 @@
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C92" s="38">
         <v>2017</v>
       </c>
       <c r="D92" s="64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E92" s="43">
         <v>0</v>
@@ -17223,16 +17223,16 @@
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C93" s="48">
         <v>2017</v>
       </c>
       <c r="D93" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E93" s="53">
         <v>0</v>
@@ -17387,16 +17387,16 @@
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C94" s="38">
         <v>2017</v>
       </c>
       <c r="D94" s="64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E94" s="43">
         <v>0</v>
@@ -17551,16 +17551,16 @@
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C95" s="48">
         <v>2017</v>
       </c>
       <c r="D95" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E95" s="53">
         <v>0</v>
@@ -17715,16 +17715,16 @@
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C96" s="38">
         <v>2017</v>
       </c>
       <c r="D96" s="64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E96" s="43">
         <v>0</v>
@@ -17879,16 +17879,16 @@
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C97" s="48">
         <v>2017</v>
       </c>
       <c r="D97" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E97" s="53">
         <v>0</v>
@@ -18043,16 +18043,16 @@
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C98" s="38">
         <v>2017</v>
       </c>
       <c r="D98" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E98" s="43">
         <v>0</v>
@@ -18207,16 +18207,16 @@
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C99" s="48">
         <v>2017</v>
       </c>
       <c r="D99" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E99" s="53">
         <v>0</v>
@@ -18371,16 +18371,16 @@
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B100" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C100" s="38">
         <v>2017</v>
       </c>
       <c r="D100" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E100" s="43">
         <v>0</v>
@@ -18535,16 +18535,16 @@
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C101" s="48">
         <v>2017</v>
       </c>
       <c r="D101" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E101" s="53">
         <v>0</v>
@@ -18699,16 +18699,16 @@
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C102" s="38">
         <v>2017</v>
       </c>
       <c r="D102" s="64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E102" s="43">
         <v>0</v>
@@ -18863,16 +18863,16 @@
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C103" s="48">
         <v>2017</v>
       </c>
       <c r="D103" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E103" s="53">
         <v>0</v>
@@ -19027,16 +19027,16 @@
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C104" s="38">
         <v>2017</v>
       </c>
       <c r="D104" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E104" s="43">
         <v>0</v>
@@ -19191,16 +19191,16 @@
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C105" s="48">
         <v>2017</v>
       </c>
       <c r="D105" s="63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="53">
         <v>0</v>
@@ -19355,16 +19355,16 @@
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C106" s="38">
         <v>2017</v>
       </c>
       <c r="D106" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E106" s="43">
         <v>0</v>
@@ -19519,16 +19519,16 @@
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B107" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C107" s="48">
         <v>2017</v>
       </c>
       <c r="D107" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E107" s="53">
         <v>0</v>
@@ -19683,16 +19683,16 @@
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C108" s="38">
         <v>2017</v>
       </c>
       <c r="D108" s="64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E108" s="43">
         <v>0</v>
@@ -19847,16 +19847,16 @@
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B109" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C109" s="48">
         <v>2017</v>
       </c>
       <c r="D109" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E109" s="53">
         <v>0</v>
@@ -20011,16 +20011,16 @@
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C110" s="38">
         <v>2017</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E110" s="43">
         <v>0</v>
@@ -20175,16 +20175,16 @@
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B111" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C111" s="48">
         <v>2017</v>
       </c>
       <c r="D111" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E111" s="53">
         <v>0</v>
@@ -20339,16 +20339,16 @@
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C112" s="38">
         <v>2017</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" s="43">
         <v>0</v>
@@ -20503,16 +20503,16 @@
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B113" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C113" s="48">
         <v>2016</v>
       </c>
       <c r="D113" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E113" s="53">
         <v>0</v>
@@ -20667,16 +20667,16 @@
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C114" s="38">
         <v>2016</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E114" s="43">
         <v>0</v>
@@ -20831,16 +20831,16 @@
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115" s="48">
         <v>2016</v>
       </c>
       <c r="D115" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E115" s="53">
         <v>0</v>
@@ -20995,16 +20995,16 @@
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C116" s="38">
         <v>2016</v>
       </c>
       <c r="D116" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E116" s="43">
         <v>0</v>
@@ -21159,16 +21159,16 @@
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C117" s="48">
         <v>2016</v>
       </c>
       <c r="D117" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E117" s="53">
         <v>0</v>
@@ -21323,16 +21323,16 @@
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C118" s="38">
         <v>2016</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E118" s="43">
         <v>0</v>
@@ -21487,16 +21487,16 @@
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C119" s="48">
         <v>2016</v>
       </c>
       <c r="D119" s="63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E119" s="53">
         <v>0</v>
@@ -21651,16 +21651,16 @@
     </row>
     <row r="120" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A120" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C120" s="38">
         <v>2016</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" s="43">
         <v>0</v>
@@ -21815,16 +21815,16 @@
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C121" s="48">
         <v>2016</v>
       </c>
       <c r="D121" s="63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E121" s="53">
         <v>0</v>
@@ -21979,16 +21979,16 @@
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C122" s="38">
         <v>2016</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E122" s="43">
         <v>0</v>
@@ -22143,16 +22143,16 @@
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C123" s="48">
         <v>2016</v>
       </c>
       <c r="D123" s="63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E123" s="53">
         <v>0</v>
@@ -22307,16 +22307,16 @@
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A124" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C124" s="38">
         <v>2016</v>
       </c>
       <c r="D124" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E124" s="43">
         <v>0</v>
@@ -22471,16 +22471,16 @@
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C125" s="48">
         <v>2016</v>
       </c>
       <c r="D125" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E125" s="53">
         <v>0</v>
@@ -22635,16 +22635,16 @@
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A126" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C126" s="38">
         <v>2016</v>
       </c>
       <c r="D126" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E126" s="43">
         <v>0</v>
@@ -22799,16 +22799,16 @@
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C127" s="48">
         <v>2016</v>
       </c>
       <c r="D127" s="63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E127" s="53">
         <v>0</v>
@@ -22963,16 +22963,16 @@
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C128" s="38">
         <v>2016</v>
       </c>
       <c r="D128" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E128" s="43">
         <v>0</v>
@@ -23127,16 +23127,16 @@
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A129" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B129" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C129" s="48">
         <v>2016</v>
       </c>
       <c r="D129" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E129" s="53">
         <v>0</v>
@@ -23291,16 +23291,16 @@
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A130" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B130" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C130" s="38">
         <v>2016</v>
       </c>
       <c r="D130" s="64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E130" s="43">
         <v>0</v>
@@ -23455,16 +23455,16 @@
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A131" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C131" s="48">
         <v>2016</v>
       </c>
       <c r="D131" s="63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E131" s="53">
         <v>0</v>
@@ -23619,16 +23619,16 @@
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A132" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C132" s="38">
         <v>2016</v>
       </c>
       <c r="D132" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E132" s="43">
         <v>0</v>
@@ -23783,16 +23783,16 @@
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C133" s="48">
         <v>2016</v>
       </c>
       <c r="D133" s="63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E133" s="53">
         <v>0</v>
@@ -23947,16 +23947,16 @@
     </row>
     <row r="134" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A134" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C134" s="38">
         <v>2016</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E134" s="43">
         <v>0</v>
@@ -24111,16 +24111,16 @@
     </row>
     <row r="135" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C135" s="48">
         <v>2017</v>
       </c>
       <c r="D135" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E135" s="50">
         <v>0</v>
@@ -24275,16 +24275,16 @@
     </row>
     <row r="136" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C136" s="38">
         <v>2017</v>
       </c>
       <c r="D136" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E136" s="40">
         <v>0</v>
@@ -24439,16 +24439,16 @@
     </row>
     <row r="137" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A137" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B137" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C137" s="48">
         <v>2017</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E137" s="50">
         <v>0</v>
@@ -24603,16 +24603,16 @@
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A138" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C138" s="38">
         <v>2017</v>
       </c>
       <c r="D138" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E138" s="40">
         <v>0</v>
@@ -24767,16 +24767,16 @@
     </row>
     <row r="139" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A139" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C139" s="48">
         <v>2017</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E139" s="50">
         <v>0</v>
@@ -24931,16 +24931,16 @@
     </row>
     <row r="140" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A140" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B140" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" s="38">
         <v>2017</v>
       </c>
       <c r="D140" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E140" s="40">
         <v>0</v>
@@ -25095,16 +25095,16 @@
     </row>
     <row r="141" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C141" s="48">
         <v>2017</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E141" s="50">
         <v>0</v>
@@ -25259,16 +25259,16 @@
     </row>
     <row r="142" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A142" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C142" s="38">
         <v>2017</v>
       </c>
       <c r="D142" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E142" s="40">
         <v>0</v>
@@ -25423,16 +25423,16 @@
     </row>
     <row r="143" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A143" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C143" s="48">
         <v>2017</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E143" s="50">
         <v>0</v>
@@ -25587,16 +25587,16 @@
     </row>
     <row r="144" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A144" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C144" s="38">
         <v>2017</v>
       </c>
       <c r="D144" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E144" s="40">
         <v>0</v>
@@ -25751,16 +25751,16 @@
     </row>
     <row r="145" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C145" s="48">
         <v>2017</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E145" s="53">
         <v>0</v>
@@ -25915,16 +25915,16 @@
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A146" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C146" s="38">
         <v>2017</v>
       </c>
       <c r="D146" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E146" s="43">
         <v>0</v>
@@ -26079,16 +26079,16 @@
     </row>
     <row r="147" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A147" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C147" s="48">
         <v>2017</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E147" s="53">
         <v>0</v>
@@ -26243,16 +26243,16 @@
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C148" s="38">
         <v>2017</v>
       </c>
       <c r="D148" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E148" s="43">
         <v>0</v>
@@ -26407,16 +26407,16 @@
     </row>
     <row r="149" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C149" s="48">
         <v>2017</v>
       </c>
       <c r="D149" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E149" s="53">
         <v>0</v>
@@ -26571,16 +26571,16 @@
     </row>
     <row r="150" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C150" s="38">
         <v>2017</v>
       </c>
       <c r="D150" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E150" s="43">
         <v>0</v>
@@ -26735,16 +26735,16 @@
     </row>
     <row r="151" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C151" s="48">
         <v>2017</v>
       </c>
       <c r="D151" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E151" s="53">
         <v>0</v>
@@ -26899,16 +26899,16 @@
     </row>
     <row r="152" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C152" s="38">
         <v>2017</v>
       </c>
       <c r="D152" s="60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E152" s="43">
         <v>0</v>
@@ -27063,16 +27063,16 @@
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C153" s="48">
         <v>2017</v>
       </c>
       <c r="D153" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E153" s="53">
         <v>0</v>
@@ -27227,16 +27227,16 @@
     </row>
     <row r="154" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C154" s="38">
         <v>2017</v>
       </c>
       <c r="D154" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E154" s="43">
         <v>0</v>
@@ -27391,16 +27391,16 @@
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C155" s="48">
         <v>2017</v>
       </c>
       <c r="D155" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E155" s="53">
         <v>0</v>
@@ -27555,16 +27555,16 @@
     </row>
     <row r="156" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C156" s="38">
         <v>2017</v>
       </c>
       <c r="D156" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E156" s="43">
         <v>0</v>
@@ -27719,16 +27719,16 @@
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C157" s="48">
         <v>2017</v>
       </c>
       <c r="D157" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E157" s="53">
         <v>0</v>
@@ -27883,16 +27883,16 @@
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C158" s="38">
         <v>2017</v>
       </c>
       <c r="D158" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E158" s="43">
         <v>0</v>
@@ -28047,16 +28047,16 @@
     </row>
     <row r="159" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C159" s="48">
         <v>2017</v>
       </c>
       <c r="D159" s="61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E159" s="53">
         <v>0</v>
@@ -28211,16 +28211,16 @@
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C160" s="38">
         <v>2017</v>
       </c>
       <c r="D160" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E160" s="43">
         <v>0</v>
@@ -28375,16 +28375,16 @@
     </row>
     <row r="161" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C161" s="48">
         <v>2017</v>
       </c>
       <c r="D161" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E161" s="53">
         <v>0</v>
@@ -28539,16 +28539,16 @@
     </row>
     <row r="162" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B162" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C162" s="38">
         <v>2017</v>
       </c>
       <c r="D162" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E162" s="43">
         <v>0</v>
@@ -28703,16 +28703,16 @@
     </row>
     <row r="163" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C163" s="48">
         <v>2017</v>
       </c>
       <c r="D163" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E163" s="53">
         <v>0</v>
@@ -28867,16 +28867,16 @@
     </row>
     <row r="164" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B164" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C164" s="38">
         <v>2017</v>
       </c>
       <c r="D164" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E164" s="43">
         <v>0</v>
@@ -29031,16 +29031,16 @@
     </row>
     <row r="165" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B165" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C165" s="48">
         <v>2017</v>
       </c>
       <c r="D165" s="61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E165" s="53">
         <v>0</v>
@@ -29195,16 +29195,16 @@
     </row>
     <row r="166" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B166" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C166" s="38">
         <v>2017</v>
       </c>
       <c r="D166" s="60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E166" s="43">
         <v>0</v>
@@ -29359,16 +29359,16 @@
     </row>
     <row r="167" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A167" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B167" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C167" s="48">
         <v>2017</v>
       </c>
       <c r="D167" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E167" s="53">
         <v>0</v>
@@ -29523,16 +29523,16 @@
     </row>
     <row r="168" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A168" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B168" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C168" s="38">
         <v>2017</v>
       </c>
       <c r="D168" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E168" s="43">
         <v>0</v>
@@ -29687,16 +29687,16 @@
     </row>
     <row r="169" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A169" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C169" s="48">
         <v>2017</v>
       </c>
       <c r="D169" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E169" s="53">
         <v>0</v>
@@ -29851,16 +29851,16 @@
     </row>
     <row r="170" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C170" s="38">
         <v>2017</v>
       </c>
       <c r="D170" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E170" s="43">
         <v>0</v>
@@ -30015,16 +30015,16 @@
     </row>
     <row r="171" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C171" s="48">
         <v>2018</v>
       </c>
       <c r="D171" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E171" s="53">
         <v>0</v>
@@ -30179,16 +30179,16 @@
     </row>
     <row r="172" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C172" s="38">
         <v>2018</v>
       </c>
       <c r="D172" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E172" s="43">
         <v>0</v>
@@ -30343,16 +30343,16 @@
     </row>
     <row r="173" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B173" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C173" s="48">
         <v>2018</v>
       </c>
       <c r="D173" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E173" s="53">
         <v>0</v>
@@ -30507,16 +30507,16 @@
     </row>
     <row r="174" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B174" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C174" s="38">
         <v>2018</v>
       </c>
       <c r="D174" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E174" s="43">
         <v>0</v>
@@ -30780,16 +30780,16 @@
     </row>
     <row r="175" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A175" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B175" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C175" s="48">
         <v>2018</v>
       </c>
       <c r="D175" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E175" s="53">
         <v>0</v>
@@ -31053,16 +31053,16 @@
     </row>
     <row r="176" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B176" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C176" s="38">
         <v>2018</v>
       </c>
       <c r="D176" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E176" s="43">
         <v>0</v>
@@ -31217,16 +31217,16 @@
     </row>
     <row r="177" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B177" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C177" s="48">
         <v>2018</v>
       </c>
       <c r="D177" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E177" s="53">
         <v>0</v>
@@ -31381,16 +31381,16 @@
     </row>
     <row r="178" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C178" s="38">
         <v>2018</v>
       </c>
       <c r="D178" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E178" s="43">
         <v>0</v>
@@ -31545,16 +31545,16 @@
     </row>
     <row r="179" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B179" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C179" s="48">
         <v>2018</v>
       </c>
       <c r="D179" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E179" s="53">
         <v>0</v>
@@ -31709,16 +31709,16 @@
     </row>
     <row r="180" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C180" s="38">
         <v>2018</v>
       </c>
       <c r="D180" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E180" s="43">
         <v>0</v>
@@ -31873,16 +31873,16 @@
     </row>
     <row r="181" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B181" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C181" s="48">
         <v>2018</v>
       </c>
       <c r="D181" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E181" s="53">
         <v>0</v>
@@ -32037,16 +32037,16 @@
     </row>
     <row r="182" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C182" s="38">
         <v>2018</v>
       </c>
       <c r="D182" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E182" s="43">
         <v>0</v>
@@ -32201,16 +32201,16 @@
     </row>
     <row r="183" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B183" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C183" s="48">
         <v>2018</v>
       </c>
       <c r="D183" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E183" s="53">
         <v>0</v>
@@ -32365,16 +32365,16 @@
     </row>
     <row r="184" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A184" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C184" s="38">
         <v>2018</v>
       </c>
       <c r="D184" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E184" s="43">
         <v>0</v>
@@ -32638,16 +32638,16 @@
     </row>
     <row r="185" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B185" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="48">
         <v>2018</v>
       </c>
       <c r="D185" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E185" s="53">
         <v>0</v>
@@ -32802,16 +32802,16 @@
     </row>
     <row r="186" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A186" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C186" s="38">
         <v>2018</v>
       </c>
       <c r="D186" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E186" s="43">
         <v>0</v>
@@ -33075,16 +33075,16 @@
     </row>
     <row r="187" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B187" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C187" s="48">
         <v>2018</v>
       </c>
       <c r="D187" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E187" s="53">
         <v>0</v>
@@ -33239,16 +33239,16 @@
     </row>
     <row r="188" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B188" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C188" s="38">
         <v>2018</v>
       </c>
       <c r="D188" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E188" s="43">
         <v>0</v>
@@ -33403,16 +33403,16 @@
     </row>
     <row r="189" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B189" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C189" s="48">
         <v>2018</v>
       </c>
       <c r="D189" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E189" s="53">
         <v>0</v>
@@ -33567,16 +33567,16 @@
     </row>
     <row r="190" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B190" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C190" s="38">
         <v>2018</v>
       </c>
       <c r="D190" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E190" s="43">
         <v>0</v>
@@ -33731,16 +33731,16 @@
     </row>
     <row r="191" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B191" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C191" s="48">
         <v>2018</v>
       </c>
       <c r="D191" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E191" s="53">
         <v>0</v>
@@ -33895,16 +33895,16 @@
     </row>
     <row r="192" spans="1:163" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B192" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C192" s="38">
         <v>2018</v>
       </c>
       <c r="D192" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E192" s="43">
         <v>0</v>
@@ -34059,16 +34059,16 @@
     </row>
     <row r="193" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B193" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C193" s="48">
         <v>2018</v>
       </c>
       <c r="D193" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E193" s="53">
         <v>0</v>
@@ -34223,16 +34223,16 @@
     </row>
     <row r="194" spans="1:54" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B194" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C194" s="38">
         <v>2018</v>
       </c>
       <c r="D194" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E194" s="43">
         <v>0</v>
@@ -34387,16 +34387,16 @@
     </row>
     <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B195" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C195" s="48">
         <v>2016</v>
       </c>
       <c r="D195" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E195" s="53">
         <v>0</v>
@@ -34551,16 +34551,16 @@
     </row>
     <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B196" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C196" s="38">
         <v>2016</v>
       </c>
       <c r="D196" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E196" s="43">
         <v>0</v>
@@ -34715,16 +34715,16 @@
     </row>
     <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B197" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C197" s="48">
         <v>2016</v>
       </c>
       <c r="D197" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E197" s="53">
         <v>0</v>
@@ -34879,16 +34879,16 @@
     </row>
     <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B198" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C198" s="38">
         <v>2016</v>
       </c>
       <c r="D198" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E198" s="43">
         <v>0</v>
@@ -35043,16 +35043,16 @@
     </row>
     <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B199" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C199" s="48">
         <v>2016</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E199" s="53">
         <v>0</v>
@@ -35207,16 +35207,16 @@
     </row>
     <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B200" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C200" s="38">
         <v>2016</v>
       </c>
       <c r="D200" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E200" s="43">
         <v>0</v>
@@ -35371,16 +35371,16 @@
     </row>
     <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B201" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C201" s="48">
         <v>2016</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E201" s="53">
         <v>0</v>
@@ -35535,16 +35535,16 @@
     </row>
     <row r="202" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A202" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B202" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C202" s="38">
         <v>2016</v>
       </c>
       <c r="D202" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E202" s="43">
         <v>0</v>
@@ -35699,16 +35699,16 @@
     </row>
     <row r="203" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A203" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B203" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C203" s="48">
         <v>2016</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E203" s="53">
         <v>0</v>
@@ -35863,16 +35863,16 @@
     </row>
     <row r="204" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B204" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C204" s="38">
         <v>2016</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E204" s="43">
         <v>0</v>
@@ -36027,16 +36027,16 @@
     </row>
     <row r="205" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B205" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C205" s="48">
         <v>2016</v>
       </c>
       <c r="D205" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E205" s="53">
         <v>0</v>
@@ -36191,16 +36191,16 @@
     </row>
     <row r="206" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A206" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C206" s="38">
         <v>2016</v>
       </c>
       <c r="D206" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E206" s="43">
         <v>0</v>
@@ -36355,16 +36355,16 @@
     </row>
     <row r="207" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A207" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B207" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C207" s="48">
         <v>2016</v>
       </c>
       <c r="D207" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E207" s="53">
         <v>0</v>
@@ -36519,16 +36519,16 @@
     </row>
     <row r="208" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A208" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B208" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C208" s="38">
         <v>2016</v>
       </c>
       <c r="D208" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E208" s="43">
         <v>0</v>
@@ -36683,16 +36683,16 @@
     </row>
     <row r="209" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A209" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B209" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C209" s="48">
         <v>2016</v>
       </c>
       <c r="D209" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E209" s="53">
         <v>0</v>
@@ -36847,16 +36847,16 @@
     </row>
     <row r="210" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A210" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B210" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C210" s="38">
         <v>2016</v>
       </c>
       <c r="D210" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E210" s="43">
         <v>0</v>
@@ -37011,16 +37011,16 @@
     </row>
     <row r="211" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A211" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B211" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C211" s="48">
         <v>2016</v>
       </c>
       <c r="D211" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E211" s="53">
         <v>0</v>
@@ -37175,16 +37175,16 @@
     </row>
     <row r="212" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A212" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C212" s="38">
         <v>2016</v>
       </c>
       <c r="D212" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E212" s="43">
         <v>0</v>
@@ -37339,16 +37339,16 @@
     </row>
     <row r="213" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A213" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B213" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C213" s="48">
         <v>2016</v>
       </c>
       <c r="D213" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E213" s="53">
         <v>0</v>
@@ -37503,16 +37503,16 @@
     </row>
     <row r="214" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A214" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C214" s="38">
         <v>2016</v>
       </c>
       <c r="D214" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E214" s="43">
         <v>0</v>
@@ -37667,16 +37667,16 @@
     </row>
     <row r="215" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A215" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B215" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C215" s="48">
         <v>2016</v>
       </c>
       <c r="D215" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E215" s="53">
         <v>0</v>
@@ -37831,16 +37831,16 @@
     </row>
     <row r="216" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C216" s="38">
         <v>2016</v>
       </c>
       <c r="D216" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E216" s="43">
         <v>0</v>
@@ -37995,16 +37995,16 @@
     </row>
     <row r="217" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A217" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B217" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C217" s="48">
         <v>2016</v>
       </c>
       <c r="D217" s="48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E217" s="53">
         <v>0</v>
@@ -38159,16 +38159,16 @@
     </row>
     <row r="218" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C218" s="38">
         <v>2016</v>
       </c>
       <c r="D218" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E218" s="43">
         <v>0</v>
@@ -38323,16 +38323,16 @@
     </row>
     <row r="219" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B219" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C219" s="48">
         <v>2016</v>
       </c>
       <c r="D219" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E219" s="53">
         <v>0</v>
@@ -38487,16 +38487,16 @@
     </row>
     <row r="220" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B220" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C220" s="38">
         <v>2016</v>
       </c>
       <c r="D220" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E220" s="43">
         <v>0</v>
@@ -38651,16 +38651,16 @@
     </row>
     <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C221" s="48">
         <v>2016</v>
       </c>
       <c r="D221" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E221" s="53">
         <v>0</v>
@@ -38815,16 +38815,16 @@
     </row>
     <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B222" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C222" s="38">
         <v>2016</v>
       </c>
       <c r="D222" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E222" s="43">
         <v>0</v>
@@ -38979,16 +38979,16 @@
     </row>
     <row r="223" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A223" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B223" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C223" s="66">
         <v>2019</v>
       </c>
       <c r="D223" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E223" s="50">
         <v>0</v>
@@ -39143,16 +39143,16 @@
     </row>
     <row r="224" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A224" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B224" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C224" s="70">
         <v>2019</v>
       </c>
       <c r="D224" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E224" s="40">
         <v>0</v>
@@ -39307,16 +39307,16 @@
     </row>
     <row r="225" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A225" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B225" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" s="66">
         <v>2019</v>
       </c>
       <c r="D225" s="67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E225" s="50">
         <v>0</v>
@@ -39471,16 +39471,16 @@
     </row>
     <row r="226" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A226" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B226" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C226" s="70">
         <v>2019</v>
       </c>
       <c r="D226" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E226" s="40">
         <v>0</v>
@@ -39635,16 +39635,16 @@
     </row>
     <row r="227" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A227" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B227" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C227" s="66">
         <v>2019</v>
       </c>
       <c r="D227" s="67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E227" s="50">
         <v>0</v>
@@ -39799,16 +39799,16 @@
     </row>
     <row r="228" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A228" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B228" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C228" s="70">
         <v>2019</v>
       </c>
       <c r="D228" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E228" s="40">
         <v>0</v>
@@ -39963,16 +39963,16 @@
     </row>
     <row r="229" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A229" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B229" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C229" s="66">
         <v>2019</v>
       </c>
       <c r="D229" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E229" s="50">
         <v>0</v>
@@ -40127,16 +40127,16 @@
     </row>
     <row r="230" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A230" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B230" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C230" s="70">
         <v>2019</v>
       </c>
       <c r="D230" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E230" s="40">
         <v>0</v>
@@ -40291,16 +40291,16 @@
     </row>
     <row r="231" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A231" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B231" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C231" s="66">
         <v>2019</v>
       </c>
       <c r="D231" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E231" s="50">
         <v>0</v>
@@ -40455,16 +40455,16 @@
     </row>
     <row r="232" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A232" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B232" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C232" s="70">
         <v>2019</v>
       </c>
       <c r="D232" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E232" s="40">
         <v>0</v>
@@ -40619,16 +40619,16 @@
     </row>
     <row r="233" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A233" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B233" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C233" s="66">
         <v>2019</v>
       </c>
       <c r="D233" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E233" s="50">
         <v>0</v>
@@ -40783,16 +40783,16 @@
     </row>
     <row r="234" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A234" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B234" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C234" s="70">
         <v>2019</v>
       </c>
       <c r="D234" s="71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E234" s="40">
         <v>0</v>
@@ -40947,16 +40947,16 @@
     </row>
     <row r="235" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A235" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B235" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C235" s="66">
         <v>2019</v>
       </c>
       <c r="D235" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E235" s="50">
         <v>0</v>
@@ -41111,16 +41111,16 @@
     </row>
     <row r="236" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A236" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B236" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C236" s="70">
         <v>2019</v>
       </c>
       <c r="D236" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E236" s="40">
         <v>0</v>
@@ -41275,16 +41275,16 @@
     </row>
     <row r="237" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A237" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B237" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C237" s="66">
         <v>2019</v>
       </c>
       <c r="D237" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E237" s="50">
         <v>0</v>
@@ -41439,16 +41439,16 @@
     </row>
     <row r="238" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A238" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B238" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C238" s="70">
         <v>2019</v>
       </c>
       <c r="D238" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E238" s="40">
         <v>0</v>
@@ -41603,16 +41603,16 @@
     </row>
     <row r="239" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A239" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B239" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C239" s="66">
         <v>2019</v>
       </c>
       <c r="D239" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E239" s="50">
         <v>0</v>
@@ -41767,16 +41767,16 @@
     </row>
     <row r="240" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A240" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B240" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C240" s="70">
         <v>2019</v>
       </c>
       <c r="D240" s="71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E240" s="40">
         <v>0</v>
@@ -41931,16 +41931,16 @@
     </row>
     <row r="241" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A241" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B241" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C241" s="66">
         <v>2019</v>
       </c>
       <c r="D241" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E241" s="50">
         <v>0</v>
@@ -42095,16 +42095,16 @@
     </row>
     <row r="242" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A242" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B242" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C242" s="74">
         <v>2019</v>
       </c>
       <c r="D242" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E242" s="76">
         <v>0</v>
@@ -42259,18 +42259,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AF1:AZ1"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:Z2"/>
     <mergeCell ref="E1:AE1"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="AF1:AZ1"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -42279,6 +42279,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E2C36908031EAA4DBA4B215FF24AC16B" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="25d4e3628e74548e003023a6e3d05b60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="626cd67d-102d-46d0-ac37-3e6bebf97187" xmlns:ns4="462a4cbc-85ef-4c28-ad24-c497397070e6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d17c4b31f0b9c9b8b8eca0bdaf2f3e1" ns3:_="" ns4:_="">
     <xsd:import namespace="626cd67d-102d-46d0-ac37-3e6bebf97187"/>
@@ -42449,12 +42455,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -42465,6 +42465,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63A6262D-72A5-483A-80BA-35F5FCC21814}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="462a4cbc-85ef-4c28-ad24-c497397070e6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="626cd67d-102d-46d0-ac37-3e6bebf97187"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2531E1F-36F0-4D6F-8959-A821D9D1B4F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42483,23 +42500,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63A6262D-72A5-483A-80BA-35F5FCC21814}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="462a4cbc-85ef-4c28-ad24-c497397070e6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="626cd67d-102d-46d0-ac37-3e6bebf97187"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F08EF8D-CDD2-499D-902D-DE25C019B585}">
   <ds:schemaRefs>
